--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Geographic.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Geographic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>@default</t>
   </si>
@@ -80,6 +80,60 @@
   </si>
   <si>
     <t>首陽山</t>
+  </si>
+  <si>
+    <t>奉天</t>
+  </si>
+  <si>
+    <t>錦州</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>隰州</t>
+  </si>
+  <si>
+    <t>直隸州</t>
+  </si>
+  <si>
+    <t>河東</t>
+  </si>
+  <si>
+    <t>聞喜</t>
+  </si>
+  <si>
+    <t>扶風</t>
+  </si>
+  <si>
+    <t>廣平</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>左馮翊</t>
+  </si>
+  <si>
+    <t>楚</t>
+  </si>
+  <si>
+    <t>東莞</t>
+  </si>
+  <si>
+    <t>華嶽</t>
+  </si>
+  <si>
+    <t>西嶽</t>
+  </si>
+  <si>
+    <t>華山</t>
+  </si>
+  <si>
+    <t>龍門</t>
+  </si>
+  <si>
+    <t>江淮</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -1188,6 +1242,150 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
